--- a/Data/Metadata/metadata_orders.xlsx
+++ b/Data/Metadata/metadata_orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fiverr\Current\69. magnus_myr + Killian\ForHumans\Data\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49841868-0C74-49C5-A81E-A73FAA7AA6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51226A84-EBB0-480E-86F9-EE452EA124B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{20528E6E-A176-4668-9BAC-569548C50BCD}"/>
+    <workbookView xWindow="22932" yWindow="2244" windowWidth="23256" windowHeight="13176" xr2:uid="{20528E6E-A176-4668-9BAC-569548C50BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -747,83 +747,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F64C93-F53C-422C-9F1D-0495FFA8F31D}">
   <dimension ref="A1:BW8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="AS4" workbookViewId="0">
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="17" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.7109375" customWidth="1"/>
+    <col min="54" max="54" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="11" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="11" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:75" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -831,7 +831,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:75" s="2" customFormat="1" ht="26.4">
+    <row r="2" spans="1:75" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>95</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:75" s="2" customFormat="1" ht="409.6">
+    <row r="8" spans="1:75" s="2" customFormat="1" ht="409.5">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
